--- a/01_Documentacion/BOM.xlsx
+++ b/01_Documentacion/BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruben/Documents/Proyectos/Proyectos en curso/FC/01_Documentacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71465D26-DFB9-E440-8328-737F39675926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9760CB-FA89-E344-9152-7678B2BB9B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="4820" windowWidth="28040" windowHeight="17440" xr2:uid="{C31A4786-3E4D-4040-B484-F78A9138C272}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" xr2:uid="{C31A4786-3E4D-4040-B484-F78A9138C272}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>Link</t>
   </si>
@@ -122,6 +122,18 @@
   </si>
   <si>
     <t>Drone price:</t>
+  </si>
+  <si>
+    <t>Opciones</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>PDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANGEEK PDB </t>
   </si>
 </sst>
 </file>
@@ -167,7 +179,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -184,12 +196,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,6 +298,24 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -227,6 +323,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA7F05C"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -535,19 +636,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300B0C41-8410-624E-AF94-9FD451043B7E}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="20.5" customWidth="1"/>
     <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -574,7 +676,7 @@
       <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="4" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
@@ -604,11 +706,10 @@
       <c r="G5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <f>E5*F5</f>
         <v>54.36</v>
       </c>
-      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -638,11 +739,10 @@
       <c r="G6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="4">
-        <f t="shared" ref="H6:H23" si="0">E6*F6</f>
+      <c r="I6" s="4">
+        <f>E6*F6</f>
         <v>35.96</v>
       </c>
-      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -672,11 +772,10 @@
       <c r="G7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="4">
-        <f t="shared" si="0"/>
-        <v>29.99</v>
-      </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="4">
+        <f>IF(C25="YES",E7*F7,0)</f>
+        <v>0</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -706,11 +805,10 @@
       <c r="G8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="4">
-        <f t="shared" si="0"/>
+      <c r="I8" s="4">
+        <f>E8*F8</f>
         <v>28.14</v>
       </c>
-      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -740,11 +838,10 @@
       <c r="G9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="4">
-        <f t="shared" si="0"/>
+      <c r="I9" s="4">
+        <f>E9*F9</f>
         <v>48.4</v>
       </c>
-      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -756,127 +853,117 @@
         <v>27</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <f>D10/C10</f>
+        <v>10</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="4">
+        <f>E10*F10</f>
+        <v>10</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>10.99</v>
+      </c>
+      <c r="E11" s="4">
+        <f>D11/C11</f>
+        <v>10.99</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <f>E11*F11</f>
+        <v>10.99</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2">
-        <v>11.49</v>
-      </c>
-      <c r="E12" s="4">
-        <f>D12/C12</f>
-        <v>3.83</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="0"/>
-        <v>3.83</v>
-      </c>
-      <c r="I12" s="1"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="I12" s="4">
+        <f>E12*F12</f>
+        <v>0</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>11.99</v>
-      </c>
-      <c r="E13" s="4">
-        <f>D13/C13</f>
-        <v>5.9950000000000001</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <f t="shared" si="0"/>
-        <v>5.9950000000000001</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+    <row r="13" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="I13" s="4">
+        <f>E13*F13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
       </c>
       <c r="D14" s="2">
-        <v>21.99</v>
+        <v>11.49</v>
       </c>
       <c r="E14" s="4">
         <f>D14/C14</f>
-        <v>7.3299999999999992</v>
+        <v>3.83</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -884,11 +971,10 @@
       <c r="G14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="4">
-        <f t="shared" si="0"/>
-        <v>7.3299999999999992</v>
-      </c>
-      <c r="I14" s="1"/>
+      <c r="I14" s="4">
+        <f>E14*F14</f>
+        <v>3.83</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -897,32 +983,31 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" s="2">
-        <v>8.49</v>
+        <v>11.99</v>
       </c>
       <c r="E15" s="4">
         <f>D15/C15</f>
-        <v>1.698</v>
+        <v>5.9950000000000001</v>
       </c>
       <c r="F15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="4">
-        <f t="shared" si="0"/>
-        <v>3.3959999999999999</v>
-      </c>
-      <c r="I15" s="1"/>
+      <c r="I15" s="4">
+        <f>IF(C24=A15,E15*F15,0)</f>
+        <v>5.9950000000000001</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -930,18 +1015,32 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>21.99</v>
+      </c>
+      <c r="E16" s="4">
+        <f>D16/C16</f>
+        <v>7.3299999999999992</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <f>IF(C24=A16,E16*F16,0)</f>
+        <v>0</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -949,20 +1048,34 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>8.49</v>
+      </c>
+      <c r="E17" s="4">
+        <f>D17/C17</f>
+        <v>1.698</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <f>E17*F17</f>
+        <v>3.3959999999999999</v>
+      </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="4"/>
+      <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -975,18 +1088,12 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="11">
-        <f>SUM(H:H)</f>
-        <v>217.40100000000001</v>
-      </c>
+      <c r="I18" s="4">
+        <f>E18*F18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -999,13 +1106,12 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="1"/>
+      <c r="I19" s="4">
+        <f>E19*F19</f>
+        <v>0</v>
+      </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="K19" s="4"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -1018,13 +1124,17 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="I20" s="4">
+        <f>E20*F20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="11">
+        <f>SUM(I:I)</f>
+        <v>201.071</v>
+      </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1037,18 +1147,17 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="5"/>
+      <c r="I21" s="4">
+        <f>E21*F21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1056,11 +1165,10 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="1"/>
+      <c r="I22" s="4">
+        <f>E22*F22</f>
+        <v>0</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1069,18 +1177,19 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="B23" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="13"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="I23" s="4">
+        <f>E23*F23</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="5"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -1088,14 +1197,20 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="B24" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="4">
+        <f>E24*F24</f>
+        <v>0</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1104,14 +1219,20 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="B25" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="4">
+        <f>E25*F25</f>
+        <v>0</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1120,13 +1241,12 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1136,13 +1256,12 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1152,13 +1271,12 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1168,13 +1286,12 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -1184,13 +1301,12 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -1200,13 +1316,12 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -1214,15 +1329,14 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1238,7 +1352,6 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -1254,7 +1367,6 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -1262,17 +1374,56 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24" xr:uid="{6A17FDDF-0D0A-5245-8ED7-AA9CEEC243F6}">
+      <formula1>$A$15:$A$16</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25" xr:uid="{05FD75CB-2947-484C-A0E8-C9DB0B96F819}">
+      <formula1>"YES, NO"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{9C5873BD-4873-DB42-8D7C-A4C4BB7F4DE5}"/>
     <hyperlink ref="G6" r:id="rId2" xr:uid="{8498989B-8533-C54A-9ED7-C8A7EABD4AD8}"/>
     <hyperlink ref="G7" r:id="rId3" xr:uid="{E81B0940-025A-4644-B6E6-B67DAB6947C3}"/>
-    <hyperlink ref="G12" r:id="rId4" xr:uid="{1EDDEDEF-2846-3F42-B499-66EB602552C4}"/>
-    <hyperlink ref="G13" r:id="rId5" xr:uid="{23B0C47A-2541-144C-A534-125B91074AE4}"/>
-    <hyperlink ref="G14" r:id="rId6" xr:uid="{D49EDEEF-931B-4044-BFCF-7C9D9B4E0AAD}"/>
-    <hyperlink ref="G15" r:id="rId7" xr:uid="{0FC66F17-8B83-A845-BE6A-F21317A5718F}"/>
+    <hyperlink ref="G14" r:id="rId4" xr:uid="{1EDDEDEF-2846-3F42-B499-66EB602552C4}"/>
+    <hyperlink ref="G15" r:id="rId5" xr:uid="{23B0C47A-2541-144C-A534-125B91074AE4}"/>
+    <hyperlink ref="G16" r:id="rId6" xr:uid="{D49EDEEF-931B-4044-BFCF-7C9D9B4E0AAD}"/>
+    <hyperlink ref="G17" r:id="rId7" xr:uid="{0FC66F17-8B83-A845-BE6A-F21317A5718F}"/>
     <hyperlink ref="G8" r:id="rId8" xr:uid="{D1D657F3-E41D-FA43-80C1-96F3D41992B4}"/>
     <hyperlink ref="G9" r:id="rId9" location="q=&amp;idx=hbk_live_magento_es_es_products_hbk_price_stock_7_group_0_asc&amp;dFR%5Bconfig%5D%5B0%5D=3&amp;dFR%5Bin_stock%5D%5B0%5D=1&amp;dFR%5Bwarehouses%5D%5B0%5D=Global&amp;dFR%5Bwarehouses%5D%5B1%5D=EU&amp;dFR%5Bwarehouses_stock_data%5D%5B0%5D=Global%7C3&amp;dFR%5Bwarehouses_stock_data%5D%5B1%5D=EU%7C3&amp;hFR%5Bcategories.level0%5D%5B0%5D=Cargadores%20de%20Bater%C3%ADas%20%2F%2F%2F%20Bater%C3%ADas%20%2F%2F%2F%20LiPo&amp;nR%5Bcapacity%5D%5B%3E%3D%5D%5B0%5D=5000&amp;is_v=1" xr:uid="{6019A14D-BE0E-4549-AD81-B02CE6D45A62}"/>
+    <hyperlink ref="G11" r:id="rId10" location="q=&amp;idx=hbk_live_magento_es_es_products_hbk_price_stock_7_group_0_asc&amp;dFR%5Bconfig%5D%5B0%5D=3&amp;dFR%5Bin_stock%5D%5B0%5D=1&amp;dFR%5Bwarehouses%5D%5B0%5D=Global&amp;dFR%5Bwarehouses%5D%5B1%5D=EU&amp;dFR%5Bwarehouses_stock_data%5D%5B0%5D=Global%7C3&amp;dFR%5Bwarehouses_stock_data%5D%5B1%5D=EU%7C3&amp;hFR%5Bcategories.level0%5D%5B0%5D=Cargadores%20de%20Bater%C3%ADas%20%2F%2F%2F%20Bater%C3%ADas%20%2F%2F%2F%20LiPo&amp;nR%5Bcapacity%5D%5B%3E%3D%5D%5B0%5D=5000&amp;is_v=1" xr:uid="{2FAAED6F-3DC4-C541-8FCB-D4E1EF5CA48E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
